--- a/2013-09-27 SNAP/analysis.xlsx
+++ b/2013-09-27 SNAP/analysis.xlsx
@@ -13,8 +13,8 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId4"/>
-    <pivotCache cacheId="13" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2661" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2663" uniqueCount="577">
   <si>
     <t>role_id</t>
   </si>
@@ -1750,13 +1750,19 @@
   </si>
   <si>
     <t>Democrat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       All Congressional Votes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Districts Voting for Food Stamp Cuts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1810,6 +1816,11 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Antenna"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Antenna"/>
     </font>
   </fonts>
@@ -1893,7 +1904,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1904,12 +1915,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1927,6 +1932,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4649,11 +4661,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2091567416"/>
-        <c:axId val="-2091589000"/>
+        <c:axId val="2129361576"/>
+        <c:axId val="2129364472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2091567416"/>
+        <c:axId val="2129361576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4663,12 +4675,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2091589000"/>
+        <c:crossAx val="2129364472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2091589000"/>
+        <c:axId val="2129364472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4679,14 +4691,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2091567416"/>
+        <c:crossAx val="2129361576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8285,7 +8296,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:F9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -8360,7 +8371,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:F9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -8940,8 +8951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8951,8 +8962,10 @@
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="6.83203125" customWidth="1"/>
     <col min="5" max="5" width="4.1640625" customWidth="1"/>
+    <col min="7" max="7" width="34.1640625" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="11" width="12.5" customWidth="1"/>
+    <col min="12" max="12" width="39" customWidth="1"/>
     <col min="13" max="13" width="16" customWidth="1"/>
     <col min="14" max="16" width="12.5" customWidth="1"/>
   </cols>
@@ -9079,103 +9092,111 @@
         <v>435</v>
       </c>
     </row>
+    <row r="14" spans="1:16">
+      <c r="H14" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>575</v>
+      </c>
+    </row>
     <row r="15" spans="1:16" ht="29" customHeight="1">
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="14" t="s">
         <v>567</v>
       </c>
-      <c r="K15" s="7"/>
+      <c r="K15" s="14"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
-      <c r="O15" s="7" t="s">
+      <c r="O15" s="14" t="s">
         <v>570</v>
       </c>
-      <c r="P15" s="7"/>
+      <c r="P15" s="14"/>
     </row>
     <row r="16" spans="1:16" ht="29" customHeight="1">
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="10" t="s">
         <v>564</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="14" t="s">
+      <c r="O16" s="12" t="s">
         <v>571</v>
       </c>
-      <c r="P16" s="14" t="s">
+      <c r="P16" s="12" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="17" spans="8:16" ht="29" customHeight="1">
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="13" t="s">
         <v>568</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="9" t="s">
         <v>563</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="6">
         <v>36</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="6">
         <v>86</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="M17" s="13" t="s">
         <v>569</v>
       </c>
-      <c r="N17" s="13" t="s">
+      <c r="N17" s="11" t="s">
         <v>573</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O17" s="6">
         <v>217</v>
       </c>
-      <c r="P17" s="8">
+      <c r="P17" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="8:16" ht="29" customHeight="1">
-      <c r="H18" s="6"/>
-      <c r="I18" s="11" t="s">
+      <c r="H18" s="13"/>
+      <c r="I18" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="6">
         <v>82</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="6">
         <v>13</v>
       </c>
-      <c r="M18" s="6"/>
-      <c r="N18" s="13" t="s">
+      <c r="M18" s="13"/>
+      <c r="N18" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="O18" s="8">
-        <v>0</v>
-      </c>
-      <c r="P18" s="8">
+      <c r="O18" s="6">
+        <v>0</v>
+      </c>
+      <c r="P18" s="6">
         <v>195</v>
       </c>
     </row>
     <row r="19" spans="8:16">
-      <c r="I19" s="9"/>
-      <c r="N19" s="9"/>
+      <c r="I19" s="7"/>
+      <c r="N19" s="7"/>
     </row>
     <row r="20" spans="8:16">
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="I20" s="9"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="9"/>
+      <c r="I20" s="7"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="7"/>
     </row>
     <row r="21" spans="8:16">
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="8" t="s">
         <v>566</v>
       </c>
-      <c r="M21" s="10"/>
+      <c r="M21" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9198,7 +9219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y436"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1:R1"/>
     </sheetView>
   </sheetViews>
@@ -9381,7 +9402,7 @@
         <v>3.1924135999999999E-2</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:T66" si="0">IF(Q3&gt;Q$1,1,0)</f>
+        <f t="shared" ref="S3:S66" si="0">IF(Q3&gt;Q$1,1,0)</f>
         <v>1</v>
       </c>
       <c r="T3">
@@ -13986,7 +14007,7 @@
         <v>6.8471786000000007E-2</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:T130" si="4">IF(Q67&gt;Q$1,1,0)</f>
+        <f t="shared" ref="S67:S130" si="4">IF(Q67&gt;Q$1,1,0)</f>
         <v>1</v>
       </c>
       <c r="T67">
@@ -18594,7 +18615,7 @@
         <v>0.19486113799999999</v>
       </c>
       <c r="S131">
-        <f t="shared" ref="S131:T194" si="8">IF(Q131&gt;Q$1,1,0)</f>
+        <f t="shared" ref="S131:S194" si="8">IF(Q131&gt;Q$1,1,0)</f>
         <v>1</v>
       </c>
       <c r="T131">
@@ -23202,7 +23223,7 @@
         <v>0.15250497499999999</v>
       </c>
       <c r="S195">
-        <f t="shared" ref="S195:T258" si="12">IF(Q195&gt;Q$1,1,0)</f>
+        <f t="shared" ref="S195:S258" si="12">IF(Q195&gt;Q$1,1,0)</f>
         <v>1</v>
       </c>
       <c r="T195">
@@ -27810,7 +27831,7 @@
         <v>0.15884683499999999</v>
       </c>
       <c r="S259">
-        <f t="shared" ref="S259:T322" si="16">IF(Q259&gt;Q$1,1,0)</f>
+        <f t="shared" ref="S259:S322" si="16">IF(Q259&gt;Q$1,1,0)</f>
         <v>0</v>
       </c>
       <c r="T259">
@@ -32415,7 +32436,7 @@
         <v>0.14813943600000001</v>
       </c>
       <c r="S323">
-        <f t="shared" ref="S323:T386" si="20">IF(Q323&gt;Q$1,1,0)</f>
+        <f t="shared" ref="S323:S386" si="20">IF(Q323&gt;Q$1,1,0)</f>
         <v>0</v>
       </c>
       <c r="T323">
@@ -37023,7 +37044,7 @@
         <v>0.27378261599999998</v>
       </c>
       <c r="S387">
-        <f t="shared" ref="S387:T436" si="24">IF(Q387&gt;Q$1,1,0)</f>
+        <f t="shared" ref="S387:S436" si="24">IF(Q387&gt;Q$1,1,0)</f>
         <v>0</v>
       </c>
       <c r="T387">
